--- a/Customisations/Customisations.xlsx
+++ b/Customisations/Customisations.xlsx
@@ -437,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -448,9 +448,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +485,6 @@
     <col customWidth="1" min="3" max="3" width="13.43"/>
     <col customWidth="1" min="4" max="4" width="15.29"/>
     <col customWidth="1" min="5" max="21" width="4.71"/>
-    <col customWidth="1" min="22" max="26" width="12.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2789,16 +2785,16 @@
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="2" t="b">
@@ -2813,11 +2809,9 @@
       <c r="I26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J26" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>2000.0</v>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>200.0</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>35</v>
@@ -2825,8 +2819,8 @@
       <c r="M26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="N26" s="2">
-        <v>200.0</v>
+      <c r="N26" s="4">
+        <v>2000.0</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>36</v>
@@ -2991,7 +2985,6 @@
     <col customWidth="1" min="4" max="4" width="9.43"/>
     <col customWidth="1" min="5" max="5" width="21.14"/>
     <col customWidth="1" min="6" max="15" width="4.71"/>
-    <col customWidth="1" min="16" max="26" width="12.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3247,10 +3240,10 @@
       <c r="C10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>5.0</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F10" s="2"/>
@@ -19606,7 +19599,6 @@
     <col customWidth="1" min="4" max="4" width="18.43"/>
     <col customWidth="1" min="5" max="5" width="17.0"/>
     <col customWidth="1" min="6" max="21" width="4.71"/>
-    <col customWidth="1" min="22" max="26" width="12.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">

--- a/Customisations/Customisations.xlsx
+++ b/Customisations/Customisations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="130">
   <si>
     <t>Display Name</t>
   </si>
@@ -346,6 +346,12 @@
     <t>Field For Team App Id</t>
   </si>
   <si>
+    <t>jmcg_emailnotes</t>
+  </si>
+  <si>
+    <t>Email Notes</t>
+  </si>
+  <si>
     <t>Option Set Name</t>
   </si>
   <si>
@@ -2922,27 +2928,65 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="K28" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>2000.0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1.0E8</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -3039,16 +3083,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -3075,7 +3119,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3102,7 +3146,7 @@
         <v>2.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3129,7 +3173,7 @@
         <v>3.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3156,7 +3200,7 @@
         <v>4.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -3183,7 +3227,7 @@
         <v>1.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3210,7 +3254,7 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3237,7 +3281,7 @@
         <v>3.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3264,7 +3308,7 @@
         <v>4.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3291,7 +3335,7 @@
         <v>5.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3318,7 +3362,7 @@
         <v>0.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3345,7 +3389,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3372,7 +3416,7 @@
         <v>0.0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3399,7 +3443,7 @@
         <v>1.0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3426,7 +3470,7 @@
         <v>2.0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3453,7 +3497,7 @@
         <v>3.0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3480,7 +3524,7 @@
         <v>4.0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3507,7 +3551,7 @@
         <v>5.0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3534,7 +3578,7 @@
         <v>6.0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3561,7 +3605,7 @@
         <v>7.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3588,7 +3632,7 @@
         <v>8.0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3615,7 +3659,7 @@
         <v>9.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3642,7 +3686,7 @@
         <v>10.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3669,7 +3713,7 @@
         <v>11.0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3696,7 +3740,7 @@
         <v>12.0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3723,7 +3767,7 @@
         <v>13.0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3750,7 +3794,7 @@
         <v>14.0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3777,7 +3821,7 @@
         <v>15.0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3804,7 +3848,7 @@
         <v>16.0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3831,7 +3875,7 @@
         <v>17.0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3858,7 +3902,7 @@
         <v>18.0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3885,7 +3929,7 @@
         <v>19.0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3912,7 +3956,7 @@
         <v>20.0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3939,7 +3983,7 @@
         <v>21.0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3966,7 +4010,7 @@
         <v>22.0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3993,7 +4037,7 @@
         <v>23.0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4020,7 +4064,7 @@
         <v>24.0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4047,7 +4091,7 @@
         <v>25.0</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -4074,7 +4118,7 @@
         <v>26.0</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4101,7 +4145,7 @@
         <v>27.0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4128,7 +4172,7 @@
         <v>28.0</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4155,7 +4199,7 @@
         <v>29.0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4182,7 +4226,7 @@
         <v>30.0</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4209,7 +4253,7 @@
         <v>31.0</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4236,7 +4280,7 @@
         <v>32.0</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -4263,7 +4307,7 @@
         <v>33.0</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -4290,7 +4334,7 @@
         <v>34.0</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -4317,7 +4361,7 @@
         <v>35.0</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -4344,7 +4388,7 @@
         <v>36.0</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -4371,7 +4415,7 @@
         <v>37.0</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -4398,7 +4442,7 @@
         <v>38.0</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -4425,7 +4469,7 @@
         <v>39.0</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -4452,7 +4496,7 @@
         <v>40.0</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -4479,7 +4523,7 @@
         <v>41.0</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -4506,7 +4550,7 @@
         <v>42.0</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -4533,7 +4577,7 @@
         <v>43.0</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -4560,7 +4604,7 @@
         <v>44.0</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -4587,7 +4631,7 @@
         <v>45.0</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -4614,7 +4658,7 @@
         <v>46.0</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -4641,7 +4685,7 @@
         <v>47.0</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -4668,7 +4712,7 @@
         <v>48.0</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -4695,7 +4739,7 @@
         <v>49.0</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -4722,7 +4766,7 @@
         <v>50.0</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -4749,7 +4793,7 @@
         <v>51.0</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -4776,7 +4820,7 @@
         <v>52.0</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -4803,7 +4847,7 @@
         <v>53.0</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -4830,7 +4874,7 @@
         <v>54.0</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -4857,7 +4901,7 @@
         <v>55.0</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -4884,7 +4928,7 @@
         <v>56.0</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -4911,7 +4955,7 @@
         <v>57.0</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -4938,7 +4982,7 @@
         <v>58.0</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4965,7 +5009,7 @@
         <v>59.0</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -4992,7 +5036,7 @@
         <v>60.0</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -5019,7 +5063,7 @@
         <v>61.0</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -5046,7 +5090,7 @@
         <v>62.0</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -5073,7 +5117,7 @@
         <v>63.0</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -5100,7 +5144,7 @@
         <v>64.0</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -5127,7 +5171,7 @@
         <v>65.0</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -5154,7 +5198,7 @@
         <v>66.0</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -5181,7 +5225,7 @@
         <v>67.0</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -5208,7 +5252,7 @@
         <v>68.0</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -5235,7 +5279,7 @@
         <v>69.0</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -5262,7 +5306,7 @@
         <v>70.0</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -5289,7 +5333,7 @@
         <v>71.0</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -5316,7 +5360,7 @@
         <v>72.0</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -5343,7 +5387,7 @@
         <v>73.0</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -5370,7 +5414,7 @@
         <v>74.0</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -5397,7 +5441,7 @@
         <v>75.0</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -5424,7 +5468,7 @@
         <v>76.0</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -5451,7 +5495,7 @@
         <v>77.0</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -5478,7 +5522,7 @@
         <v>78.0</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -5505,7 +5549,7 @@
         <v>79.0</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -5532,7 +5576,7 @@
         <v>80.0</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -5559,7 +5603,7 @@
         <v>81.0</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -5586,7 +5630,7 @@
         <v>82.0</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -5613,7 +5657,7 @@
         <v>83.0</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -5640,7 +5684,7 @@
         <v>84.0</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -5667,7 +5711,7 @@
         <v>85.0</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -5694,7 +5738,7 @@
         <v>86.0</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -5721,7 +5765,7 @@
         <v>87.0</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -5748,7 +5792,7 @@
         <v>88.0</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -5775,7 +5819,7 @@
         <v>89.0</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -5802,7 +5846,7 @@
         <v>90.0</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -5829,7 +5873,7 @@
         <v>91.0</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -5856,7 +5900,7 @@
         <v>92.0</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -5883,7 +5927,7 @@
         <v>93.0</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -5910,7 +5954,7 @@
         <v>94.0</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -5937,7 +5981,7 @@
         <v>95.0</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -5964,7 +6008,7 @@
         <v>96.0</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -5991,7 +6035,7 @@
         <v>97.0</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -6018,7 +6062,7 @@
         <v>98.0</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -6045,7 +6089,7 @@
         <v>99.0</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -6072,7 +6116,7 @@
         <v>100.0</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -6099,7 +6143,7 @@
         <v>0.0</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -6125,7 +6169,7 @@
         <v>1.0</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -6152,7 +6196,7 @@
         <v>2.0</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -6179,7 +6223,7 @@
         <v>3.0</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -6206,7 +6250,7 @@
         <v>4.0</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -6233,7 +6277,7 @@
         <v>5.0</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -6260,7 +6304,7 @@
         <v>6.0</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -6287,7 +6331,7 @@
         <v>7.0</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -6314,7 +6358,7 @@
         <v>8.0</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -6341,7 +6385,7 @@
         <v>9.0</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -6368,7 +6412,7 @@
         <v>10.0</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -6395,7 +6439,7 @@
         <v>11.0</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -6422,7 +6466,7 @@
         <v>12.0</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -6449,7 +6493,7 @@
         <v>13.0</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -6476,7 +6520,7 @@
         <v>14.0</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -6503,7 +6547,7 @@
         <v>15.0</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -6530,7 +6574,7 @@
         <v>16.0</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -6557,7 +6601,7 @@
         <v>17.0</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -6584,7 +6628,7 @@
         <v>18.0</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -6611,7 +6655,7 @@
         <v>19.0</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -6638,7 +6682,7 @@
         <v>20.0</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -6665,7 +6709,7 @@
         <v>21.0</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -6692,7 +6736,7 @@
         <v>22.0</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -6719,7 +6763,7 @@
         <v>23.0</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -6746,7 +6790,7 @@
         <v>24.0</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -6773,7 +6817,7 @@
         <v>25.0</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -6800,7 +6844,7 @@
         <v>26.0</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -6827,7 +6871,7 @@
         <v>27.0</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -6854,7 +6898,7 @@
         <v>28.0</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -6881,7 +6925,7 @@
         <v>29.0</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -6908,7 +6952,7 @@
         <v>30.0</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -6935,7 +6979,7 @@
         <v>31.0</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -6962,7 +7006,7 @@
         <v>32.0</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -6989,7 +7033,7 @@
         <v>33.0</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -7016,7 +7060,7 @@
         <v>34.0</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -7043,7 +7087,7 @@
         <v>35.0</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -7070,7 +7114,7 @@
         <v>36.0</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -7097,7 +7141,7 @@
         <v>37.0</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -7124,7 +7168,7 @@
         <v>38.0</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -7151,7 +7195,7 @@
         <v>39.0</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -7178,7 +7222,7 @@
         <v>40.0</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -7205,7 +7249,7 @@
         <v>41.0</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -7232,7 +7276,7 @@
         <v>42.0</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -7259,7 +7303,7 @@
         <v>43.0</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -7286,7 +7330,7 @@
         <v>44.0</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -7313,7 +7357,7 @@
         <v>45.0</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -7340,7 +7384,7 @@
         <v>46.0</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -7367,7 +7411,7 @@
         <v>47.0</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -7394,7 +7438,7 @@
         <v>48.0</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -7421,7 +7465,7 @@
         <v>49.0</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -7448,7 +7492,7 @@
         <v>50.0</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -7475,7 +7519,7 @@
         <v>51.0</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -7502,7 +7546,7 @@
         <v>52.0</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -7529,7 +7573,7 @@
         <v>53.0</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -7556,7 +7600,7 @@
         <v>54.0</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -7583,7 +7627,7 @@
         <v>55.0</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -7610,7 +7654,7 @@
         <v>56.0</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -7637,7 +7681,7 @@
         <v>57.0</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -7664,7 +7708,7 @@
         <v>58.0</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -7691,7 +7735,7 @@
         <v>59.0</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -7718,7 +7762,7 @@
         <v>60.0</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -7745,7 +7789,7 @@
         <v>61.0</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -7772,7 +7816,7 @@
         <v>62.0</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -7799,7 +7843,7 @@
         <v>63.0</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -7826,7 +7870,7 @@
         <v>64.0</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -7853,7 +7897,7 @@
         <v>65.0</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -7880,7 +7924,7 @@
         <v>66.0</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -7907,7 +7951,7 @@
         <v>67.0</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -7934,7 +7978,7 @@
         <v>68.0</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -7961,7 +8005,7 @@
         <v>69.0</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -7988,7 +8032,7 @@
         <v>70.0</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -8015,7 +8059,7 @@
         <v>71.0</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -8042,7 +8086,7 @@
         <v>72.0</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -8069,7 +8113,7 @@
         <v>73.0</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -8096,7 +8140,7 @@
         <v>74.0</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -8123,7 +8167,7 @@
         <v>75.0</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -8150,7 +8194,7 @@
         <v>76.0</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -8177,7 +8221,7 @@
         <v>77.0</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -8204,7 +8248,7 @@
         <v>78.0</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -8231,7 +8275,7 @@
         <v>79.0</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -8258,7 +8302,7 @@
         <v>80.0</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -8285,7 +8329,7 @@
         <v>81.0</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -8312,7 +8356,7 @@
         <v>82.0</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -8339,7 +8383,7 @@
         <v>83.0</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -8366,7 +8410,7 @@
         <v>84.0</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -8393,7 +8437,7 @@
         <v>85.0</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -8420,7 +8464,7 @@
         <v>86.0</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -8447,7 +8491,7 @@
         <v>87.0</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -8474,7 +8518,7 @@
         <v>88.0</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -8501,7 +8545,7 @@
         <v>89.0</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -8528,7 +8572,7 @@
         <v>90.0</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
@@ -8555,7 +8599,7 @@
         <v>91.0</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -8582,7 +8626,7 @@
         <v>92.0</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -8609,7 +8653,7 @@
         <v>93.0</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -8636,7 +8680,7 @@
         <v>94.0</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -8663,7 +8707,7 @@
         <v>95.0</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -8690,7 +8734,7 @@
         <v>96.0</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -8717,7 +8761,7 @@
         <v>97.0</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
@@ -8744,7 +8788,7 @@
         <v>98.0</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -8771,7 +8815,7 @@
         <v>99.0</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -8798,7 +8842,7 @@
         <v>100.0</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -8825,7 +8869,7 @@
         <v>101.0</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -8852,7 +8896,7 @@
         <v>102.0</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -8879,7 +8923,7 @@
         <v>103.0</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
@@ -8906,7 +8950,7 @@
         <v>104.0</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -8933,7 +8977,7 @@
         <v>105.0</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -8960,7 +9004,7 @@
         <v>106.0</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -8987,7 +9031,7 @@
         <v>107.0</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -9014,7 +9058,7 @@
         <v>108.0</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
@@ -9041,7 +9085,7 @@
         <v>109.0</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -9068,7 +9112,7 @@
         <v>110.0</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -9095,7 +9139,7 @@
         <v>111.0</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
@@ -9122,7 +9166,7 @@
         <v>112.0</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
@@ -9149,7 +9193,7 @@
         <v>113.0</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -9176,7 +9220,7 @@
         <v>114.0</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -9203,7 +9247,7 @@
         <v>115.0</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -9230,7 +9274,7 @@
         <v>116.0</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -9257,7 +9301,7 @@
         <v>117.0</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -9284,7 +9328,7 @@
         <v>118.0</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -9311,7 +9355,7 @@
         <v>119.0</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
@@ -9338,7 +9382,7 @@
         <v>120.0</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -9365,7 +9409,7 @@
         <v>121.0</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -9392,7 +9436,7 @@
         <v>122.0</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -9419,7 +9463,7 @@
         <v>123.0</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -9446,7 +9490,7 @@
         <v>124.0</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
@@ -9473,7 +9517,7 @@
         <v>125.0</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
@@ -9500,7 +9544,7 @@
         <v>126.0</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
@@ -9527,7 +9571,7 @@
         <v>127.0</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
@@ -9554,7 +9598,7 @@
         <v>128.0</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -9581,7 +9625,7 @@
         <v>129.0</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
@@ -9608,7 +9652,7 @@
         <v>130.0</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
@@ -9635,7 +9679,7 @@
         <v>131.0</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
@@ -9662,7 +9706,7 @@
         <v>132.0</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
@@ -9689,7 +9733,7 @@
         <v>133.0</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
@@ -9716,7 +9760,7 @@
         <v>134.0</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
@@ -9743,7 +9787,7 @@
         <v>135.0</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -9770,7 +9814,7 @@
         <v>136.0</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
@@ -9797,7 +9841,7 @@
         <v>137.0</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
@@ -9824,7 +9868,7 @@
         <v>138.0</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
@@ -9851,7 +9895,7 @@
         <v>139.0</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -9878,7 +9922,7 @@
         <v>140.0</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
@@ -9905,7 +9949,7 @@
         <v>141.0</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
@@ -9932,7 +9976,7 @@
         <v>142.0</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
@@ -9959,7 +10003,7 @@
         <v>143.0</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
@@ -9986,7 +10030,7 @@
         <v>144.0</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
@@ -10013,7 +10057,7 @@
         <v>145.0</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
@@ -10040,7 +10084,7 @@
         <v>146.0</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
@@ -10067,7 +10111,7 @@
         <v>147.0</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
@@ -10094,7 +10138,7 @@
         <v>148.0</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -10121,7 +10165,7 @@
         <v>149.0</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
@@ -10148,7 +10192,7 @@
         <v>150.0</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
@@ -10175,7 +10219,7 @@
         <v>151.0</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
@@ -10202,7 +10246,7 @@
         <v>152.0</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -10229,7 +10273,7 @@
         <v>153.0</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
@@ -10256,7 +10300,7 @@
         <v>154.0</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -10283,7 +10327,7 @@
         <v>155.0</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -10310,7 +10354,7 @@
         <v>156.0</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -10337,7 +10381,7 @@
         <v>157.0</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -10364,7 +10408,7 @@
         <v>158.0</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -10391,7 +10435,7 @@
         <v>159.0</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -10418,7 +10462,7 @@
         <v>160.0</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
@@ -10445,7 +10489,7 @@
         <v>161.0</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
@@ -10472,7 +10516,7 @@
         <v>162.0</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
@@ -10499,7 +10543,7 @@
         <v>163.0</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
@@ -10526,7 +10570,7 @@
         <v>164.0</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
@@ -10553,7 +10597,7 @@
         <v>165.0</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
@@ -10580,7 +10624,7 @@
         <v>166.0</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
@@ -10607,7 +10651,7 @@
         <v>167.0</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -10634,7 +10678,7 @@
         <v>168.0</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -10661,7 +10705,7 @@
         <v>169.0</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
@@ -10688,7 +10732,7 @@
         <v>170.0</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -10715,7 +10759,7 @@
         <v>171.0</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
@@ -10742,7 +10786,7 @@
         <v>172.0</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
@@ -10769,7 +10813,7 @@
         <v>173.0</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
@@ -10796,7 +10840,7 @@
         <v>174.0</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
@@ -10823,7 +10867,7 @@
         <v>175.0</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
@@ -10850,7 +10894,7 @@
         <v>176.0</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
@@ -10877,7 +10921,7 @@
         <v>177.0</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
@@ -10904,7 +10948,7 @@
         <v>178.0</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
@@ -10931,7 +10975,7 @@
         <v>179.0</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -10958,7 +11002,7 @@
         <v>180.0</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
@@ -10985,7 +11029,7 @@
         <v>181.0</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
@@ -11012,7 +11056,7 @@
         <v>182.0</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
@@ -11039,7 +11083,7 @@
         <v>183.0</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
@@ -11066,7 +11110,7 @@
         <v>184.0</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
@@ -11093,7 +11137,7 @@
         <v>185.0</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -11120,7 +11164,7 @@
         <v>186.0</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -11147,7 +11191,7 @@
         <v>187.0</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
@@ -11174,7 +11218,7 @@
         <v>188.0</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
@@ -11201,7 +11245,7 @@
         <v>189.0</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
@@ -11228,7 +11272,7 @@
         <v>190.0</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
@@ -11255,7 +11299,7 @@
         <v>191.0</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
@@ -11282,7 +11326,7 @@
         <v>192.0</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
@@ -11309,7 +11353,7 @@
         <v>193.0</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
@@ -11336,7 +11380,7 @@
         <v>194.0</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
@@ -11363,7 +11407,7 @@
         <v>195.0</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
@@ -11390,7 +11434,7 @@
         <v>196.0</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
@@ -11417,7 +11461,7 @@
         <v>197.0</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
@@ -11444,7 +11488,7 @@
         <v>198.0</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
@@ -11471,7 +11515,7 @@
         <v>199.0</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
@@ -11498,7 +11542,7 @@
         <v>200.0</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
@@ -11525,7 +11569,7 @@
         <v>201.0</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
@@ -11552,7 +11596,7 @@
         <v>202.0</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
@@ -11579,7 +11623,7 @@
         <v>203.0</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
@@ -11606,7 +11650,7 @@
         <v>204.0</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
@@ -11633,7 +11677,7 @@
         <v>205.0</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
@@ -11660,7 +11704,7 @@
         <v>206.0</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
@@ -11687,7 +11731,7 @@
         <v>207.0</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -11714,7 +11758,7 @@
         <v>208.0</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
@@ -11741,7 +11785,7 @@
         <v>209.0</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
@@ -11768,7 +11812,7 @@
         <v>210.0</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -11795,7 +11839,7 @@
         <v>211.0</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
@@ -11822,7 +11866,7 @@
         <v>212.0</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
@@ -11849,7 +11893,7 @@
         <v>213.0</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
@@ -11876,7 +11920,7 @@
         <v>214.0</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
@@ -11903,7 +11947,7 @@
         <v>215.0</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
@@ -11930,7 +11974,7 @@
         <v>216.0</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -11957,7 +12001,7 @@
         <v>217.0</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -11984,7 +12028,7 @@
         <v>218.0</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
@@ -12011,7 +12055,7 @@
         <v>219.0</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
@@ -12038,7 +12082,7 @@
         <v>220.0</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
@@ -12065,7 +12109,7 @@
         <v>221.0</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
@@ -12092,7 +12136,7 @@
         <v>222.0</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
@@ -12119,7 +12163,7 @@
         <v>223.0</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
@@ -12146,7 +12190,7 @@
         <v>224.0</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
@@ -12173,7 +12217,7 @@
         <v>225.0</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
@@ -12200,7 +12244,7 @@
         <v>226.0</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
@@ -12227,7 +12271,7 @@
         <v>227.0</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
@@ -12254,7 +12298,7 @@
         <v>228.0</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
@@ -12281,7 +12325,7 @@
         <v>229.0</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
@@ -12308,7 +12352,7 @@
         <v>230.0</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
@@ -12335,7 +12379,7 @@
         <v>231.0</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
@@ -12362,7 +12406,7 @@
         <v>232.0</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
@@ -12389,7 +12433,7 @@
         <v>233.0</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
@@ -12416,7 +12460,7 @@
         <v>234.0</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
@@ -12443,7 +12487,7 @@
         <v>235.0</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
@@ -12470,7 +12514,7 @@
         <v>236.0</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
@@ -12497,7 +12541,7 @@
         <v>237.0</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
@@ -12524,7 +12568,7 @@
         <v>238.0</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -12551,7 +12595,7 @@
         <v>239.0</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
@@ -12578,7 +12622,7 @@
         <v>240.0</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
@@ -12605,7 +12649,7 @@
         <v>241.0</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
@@ -12632,7 +12676,7 @@
         <v>242.0</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
@@ -12659,7 +12703,7 @@
         <v>243.0</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
@@ -12686,7 +12730,7 @@
         <v>244.0</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
@@ -12713,7 +12757,7 @@
         <v>245.0</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
@@ -12740,7 +12784,7 @@
         <v>246.0</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
@@ -12767,7 +12811,7 @@
         <v>247.0</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
@@ -12794,7 +12838,7 @@
         <v>248.0</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
@@ -12821,7 +12865,7 @@
         <v>249.0</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
@@ -12848,7 +12892,7 @@
         <v>250.0</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
@@ -12875,7 +12919,7 @@
         <v>251.0</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
@@ -12902,7 +12946,7 @@
         <v>252.0</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
@@ -12929,7 +12973,7 @@
         <v>253.0</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
@@ -12956,7 +13000,7 @@
         <v>254.0</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
@@ -12983,7 +13027,7 @@
         <v>255.0</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
@@ -13010,7 +13054,7 @@
         <v>256.0</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
@@ -13037,7 +13081,7 @@
         <v>257.0</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
@@ -13064,7 +13108,7 @@
         <v>258.0</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
@@ -13091,7 +13135,7 @@
         <v>259.0</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
@@ -13118,7 +13162,7 @@
         <v>260.0</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -13145,7 +13189,7 @@
         <v>261.0</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
@@ -13172,7 +13216,7 @@
         <v>262.0</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
@@ -13199,7 +13243,7 @@
         <v>263.0</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -13226,7 +13270,7 @@
         <v>264.0</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
@@ -13253,7 +13297,7 @@
         <v>265.0</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -13280,7 +13324,7 @@
         <v>266.0</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -13307,7 +13351,7 @@
         <v>267.0</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -13334,7 +13378,7 @@
         <v>268.0</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
@@ -13361,7 +13405,7 @@
         <v>269.0</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
@@ -13388,7 +13432,7 @@
         <v>270.0</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
@@ -13415,7 +13459,7 @@
         <v>271.0</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
@@ -13442,7 +13486,7 @@
         <v>272.0</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
@@ -13469,7 +13513,7 @@
         <v>273.0</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
@@ -13496,7 +13540,7 @@
         <v>274.0</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -13523,7 +13567,7 @@
         <v>275.0</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
@@ -13550,7 +13594,7 @@
         <v>276.0</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
@@ -13577,7 +13621,7 @@
         <v>277.0</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
@@ -13604,7 +13648,7 @@
         <v>278.0</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
@@ -13631,7 +13675,7 @@
         <v>279.0</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
@@ -13658,7 +13702,7 @@
         <v>280.0</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
@@ -13685,7 +13729,7 @@
         <v>281.0</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
@@ -13712,7 +13756,7 @@
         <v>282.0</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
@@ -13739,7 +13783,7 @@
         <v>283.0</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
@@ -13766,7 +13810,7 @@
         <v>284.0</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
@@ -13793,7 +13837,7 @@
         <v>285.0</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -13820,7 +13864,7 @@
         <v>286.0</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -13847,7 +13891,7 @@
         <v>287.0</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -13874,7 +13918,7 @@
         <v>288.0</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
@@ -13901,7 +13945,7 @@
         <v>289.0</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
@@ -13928,7 +13972,7 @@
         <v>290.0</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
@@ -13955,7 +13999,7 @@
         <v>291.0</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -13982,7 +14026,7 @@
         <v>292.0</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
@@ -14009,7 +14053,7 @@
         <v>293.0</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
@@ -14036,7 +14080,7 @@
         <v>294.0</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
@@ -14063,7 +14107,7 @@
         <v>295.0</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
@@ -14090,7 +14134,7 @@
         <v>296.0</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
@@ -14117,7 +14161,7 @@
         <v>297.0</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
@@ -14144,7 +14188,7 @@
         <v>298.0</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -14171,7 +14215,7 @@
         <v>299.0</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
@@ -14198,7 +14242,7 @@
         <v>300.0</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
@@ -14225,7 +14269,7 @@
         <v>301.0</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
@@ -14252,7 +14296,7 @@
         <v>302.0</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
@@ -14279,7 +14323,7 @@
         <v>303.0</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
@@ -14306,7 +14350,7 @@
         <v>304.0</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
@@ -14333,7 +14377,7 @@
         <v>305.0</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
@@ -14360,7 +14404,7 @@
         <v>306.0</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
@@ -14387,7 +14431,7 @@
         <v>307.0</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
@@ -14414,7 +14458,7 @@
         <v>308.0</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
@@ -14441,7 +14485,7 @@
         <v>309.0</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -14468,7 +14512,7 @@
         <v>310.0</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
@@ -14495,7 +14539,7 @@
         <v>311.0</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -14522,7 +14566,7 @@
         <v>312.0</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
@@ -14549,7 +14593,7 @@
         <v>313.0</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
@@ -14576,7 +14620,7 @@
         <v>314.0</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
@@ -14603,7 +14647,7 @@
         <v>315.0</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
@@ -14630,7 +14674,7 @@
         <v>316.0</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
@@ -14657,7 +14701,7 @@
         <v>317.0</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
@@ -14684,7 +14728,7 @@
         <v>318.0</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
@@ -14711,7 +14755,7 @@
         <v>319.0</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
@@ -14738,7 +14782,7 @@
         <v>320.0</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
@@ -14765,7 +14809,7 @@
         <v>321.0</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
@@ -14792,7 +14836,7 @@
         <v>322.0</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
@@ -14819,7 +14863,7 @@
         <v>323.0</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
@@ -14846,7 +14890,7 @@
         <v>324.0</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
@@ -14873,7 +14917,7 @@
         <v>325.0</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
@@ -14900,7 +14944,7 @@
         <v>326.0</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
@@ -14927,7 +14971,7 @@
         <v>327.0</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
@@ -14954,7 +14998,7 @@
         <v>328.0</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
@@ -14981,7 +15025,7 @@
         <v>329.0</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
@@ -15008,7 +15052,7 @@
         <v>330.0</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
@@ -15035,7 +15079,7 @@
         <v>331.0</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
@@ -15062,7 +15106,7 @@
         <v>332.0</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
@@ -15089,7 +15133,7 @@
         <v>333.0</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
@@ -15116,7 +15160,7 @@
         <v>334.0</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
@@ -15143,7 +15187,7 @@
         <v>335.0</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
@@ -15170,7 +15214,7 @@
         <v>336.0</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
@@ -15197,7 +15241,7 @@
         <v>337.0</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
@@ -15224,7 +15268,7 @@
         <v>338.0</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
@@ -15251,7 +15295,7 @@
         <v>339.0</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
@@ -15278,7 +15322,7 @@
         <v>340.0</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
@@ -15305,7 +15349,7 @@
         <v>341.0</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F455" s="2"/>
       <c r="G455" s="2"/>
@@ -15332,7 +15376,7 @@
         <v>342.0</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
@@ -15359,7 +15403,7 @@
         <v>343.0</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
@@ -15386,7 +15430,7 @@
         <v>344.0</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
@@ -15413,7 +15457,7 @@
         <v>345.0</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
@@ -15440,7 +15484,7 @@
         <v>346.0</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
@@ -15467,7 +15511,7 @@
         <v>347.0</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
@@ -15494,7 +15538,7 @@
         <v>348.0</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F462" s="2"/>
       <c r="G462" s="2"/>
@@ -15521,7 +15565,7 @@
         <v>349.0</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F463" s="2"/>
       <c r="G463" s="2"/>
@@ -15548,7 +15592,7 @@
         <v>350.0</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F464" s="2"/>
       <c r="G464" s="2"/>
@@ -15575,7 +15619,7 @@
         <v>351.0</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" s="2"/>
@@ -15602,7 +15646,7 @@
         <v>352.0</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F466" s="2"/>
       <c r="G466" s="2"/>
@@ -15629,7 +15673,7 @@
         <v>353.0</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
@@ -15656,7 +15700,7 @@
         <v>354.0</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F468" s="2"/>
       <c r="G468" s="2"/>
@@ -15683,7 +15727,7 @@
         <v>355.0</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F469" s="2"/>
       <c r="G469" s="2"/>
@@ -15710,7 +15754,7 @@
         <v>356.0</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F470" s="2"/>
       <c r="G470" s="2"/>
@@ -15737,7 +15781,7 @@
         <v>357.0</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
@@ -15764,7 +15808,7 @@
         <v>358.0</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F472" s="2"/>
       <c r="G472" s="2"/>
@@ -15791,7 +15835,7 @@
         <v>359.0</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
@@ -15818,7 +15862,7 @@
         <v>360.0</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F474" s="2"/>
       <c r="G474" s="2"/>
@@ -15845,7 +15889,7 @@
         <v>361.0</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F475" s="2"/>
       <c r="G475" s="2"/>
@@ -15872,7 +15916,7 @@
         <v>362.0</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F476" s="2"/>
       <c r="G476" s="2"/>
@@ -15899,7 +15943,7 @@
         <v>363.0</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F477" s="2"/>
       <c r="G477" s="2"/>
@@ -15926,7 +15970,7 @@
         <v>364.0</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F478" s="2"/>
       <c r="G478" s="2"/>
@@ -15953,7 +15997,7 @@
         <v>365.0</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F479" s="2"/>
       <c r="G479" s="2"/>
@@ -15980,7 +16024,7 @@
         <v>366.0</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F480" s="2"/>
       <c r="G480" s="2"/>
@@ -16007,7 +16051,7 @@
         <v>367.0</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F481" s="2"/>
       <c r="G481" s="2"/>
@@ -16034,7 +16078,7 @@
         <v>368.0</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F482" s="2"/>
       <c r="G482" s="2"/>
@@ -16061,7 +16105,7 @@
         <v>369.0</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F483" s="2"/>
       <c r="G483" s="2"/>
@@ -16088,7 +16132,7 @@
         <v>370.0</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F484" s="2"/>
       <c r="G484" s="2"/>
@@ -16115,7 +16159,7 @@
         <v>371.0</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F485" s="2"/>
       <c r="G485" s="2"/>
@@ -16142,7 +16186,7 @@
         <v>372.0</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F486" s="2"/>
       <c r="G486" s="2"/>
@@ -16169,7 +16213,7 @@
         <v>373.0</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F487" s="2"/>
       <c r="G487" s="2"/>
@@ -16196,7 +16240,7 @@
         <v>374.0</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F488" s="2"/>
       <c r="G488" s="2"/>
@@ -16223,7 +16267,7 @@
         <v>375.0</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F489" s="2"/>
       <c r="G489" s="2"/>
@@ -16250,7 +16294,7 @@
         <v>376.0</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F490" s="2"/>
       <c r="G490" s="2"/>
@@ -16277,7 +16321,7 @@
         <v>377.0</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F491" s="2"/>
       <c r="G491" s="2"/>
@@ -16304,7 +16348,7 @@
         <v>378.0</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F492" s="2"/>
       <c r="G492" s="2"/>
@@ -16331,7 +16375,7 @@
         <v>379.0</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F493" s="2"/>
       <c r="G493" s="2"/>
@@ -16358,7 +16402,7 @@
         <v>380.0</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F494" s="2"/>
       <c r="G494" s="2"/>
@@ -16385,7 +16429,7 @@
         <v>381.0</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F495" s="2"/>
       <c r="G495" s="2"/>
@@ -16412,7 +16456,7 @@
         <v>382.0</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F496" s="2"/>
       <c r="G496" s="2"/>
@@ -16439,7 +16483,7 @@
         <v>383.0</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F497" s="2"/>
       <c r="G497" s="2"/>
@@ -16466,7 +16510,7 @@
         <v>384.0</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F498" s="2"/>
       <c r="G498" s="2"/>
@@ -16493,7 +16537,7 @@
         <v>385.0</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F499" s="2"/>
       <c r="G499" s="2"/>
@@ -16520,7 +16564,7 @@
         <v>386.0</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F500" s="2"/>
       <c r="G500" s="2"/>
@@ -16547,7 +16591,7 @@
         <v>387.0</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F501" s="2"/>
       <c r="G501" s="2"/>
@@ -16574,7 +16618,7 @@
         <v>388.0</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F502" s="2"/>
       <c r="G502" s="2"/>
@@ -16601,7 +16645,7 @@
         <v>389.0</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F503" s="2"/>
       <c r="G503" s="2"/>
@@ -16628,7 +16672,7 @@
         <v>390.0</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F504" s="2"/>
       <c r="G504" s="2"/>
@@ -16655,7 +16699,7 @@
         <v>391.0</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F505" s="2"/>
       <c r="G505" s="2"/>
@@ -16682,7 +16726,7 @@
         <v>392.0</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F506" s="2"/>
       <c r="G506" s="2"/>
@@ -16709,7 +16753,7 @@
         <v>393.0</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F507" s="2"/>
       <c r="G507" s="2"/>
@@ -16736,7 +16780,7 @@
         <v>394.0</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F508" s="2"/>
       <c r="G508" s="2"/>
@@ -16763,7 +16807,7 @@
         <v>395.0</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F509" s="2"/>
       <c r="G509" s="2"/>
@@ -16790,7 +16834,7 @@
         <v>396.0</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F510" s="2"/>
       <c r="G510" s="2"/>
@@ -16817,7 +16861,7 @@
         <v>397.0</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F511" s="2"/>
       <c r="G511" s="2"/>
@@ -16844,7 +16888,7 @@
         <v>398.0</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F512" s="2"/>
       <c r="G512" s="2"/>
@@ -16871,7 +16915,7 @@
         <v>399.0</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F513" s="2"/>
       <c r="G513" s="2"/>
@@ -16898,7 +16942,7 @@
         <v>400.0</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F514" s="2"/>
       <c r="G514" s="2"/>
@@ -16925,7 +16969,7 @@
         <v>401.0</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F515" s="2"/>
       <c r="G515" s="2"/>
@@ -16952,7 +16996,7 @@
         <v>402.0</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F516" s="2"/>
       <c r="G516" s="2"/>
@@ -16979,7 +17023,7 @@
         <v>403.0</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F517" s="2"/>
       <c r="G517" s="2"/>
@@ -17006,7 +17050,7 @@
         <v>404.0</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F518" s="2"/>
       <c r="G518" s="2"/>
@@ -17033,7 +17077,7 @@
         <v>405.0</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F519" s="2"/>
       <c r="G519" s="2"/>
@@ -17060,7 +17104,7 @@
         <v>406.0</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F520" s="2"/>
       <c r="G520" s="2"/>
@@ -17087,7 +17131,7 @@
         <v>407.0</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F521" s="2"/>
       <c r="G521" s="2"/>
@@ -17114,7 +17158,7 @@
         <v>408.0</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F522" s="2"/>
       <c r="G522" s="2"/>
@@ -17141,7 +17185,7 @@
         <v>409.0</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F523" s="2"/>
       <c r="G523" s="2"/>
@@ -17168,7 +17212,7 @@
         <v>410.0</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F524" s="2"/>
       <c r="G524" s="2"/>
@@ -17195,7 +17239,7 @@
         <v>411.0</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F525" s="2"/>
       <c r="G525" s="2"/>
@@ -17222,7 +17266,7 @@
         <v>412.0</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F526" s="2"/>
       <c r="G526" s="2"/>
@@ -17249,7 +17293,7 @@
         <v>413.0</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F527" s="2"/>
       <c r="G527" s="2"/>
@@ -17276,7 +17320,7 @@
         <v>414.0</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F528" s="2"/>
       <c r="G528" s="2"/>
@@ -17303,7 +17347,7 @@
         <v>415.0</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F529" s="2"/>
       <c r="G529" s="2"/>
@@ -17330,7 +17374,7 @@
         <v>416.0</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F530" s="2"/>
       <c r="G530" s="2"/>
@@ -17357,7 +17401,7 @@
         <v>417.0</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F531" s="2"/>
       <c r="G531" s="2"/>
@@ -17384,7 +17428,7 @@
         <v>418.0</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F532" s="2"/>
       <c r="G532" s="2"/>
@@ -17411,7 +17455,7 @@
         <v>419.0</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F533" s="2"/>
       <c r="G533" s="2"/>
@@ -17438,7 +17482,7 @@
         <v>420.0</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F534" s="2"/>
       <c r="G534" s="2"/>
@@ -17465,7 +17509,7 @@
         <v>421.0</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F535" s="2"/>
       <c r="G535" s="2"/>
@@ -17492,7 +17536,7 @@
         <v>422.0</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F536" s="2"/>
       <c r="G536" s="2"/>
@@ -17519,7 +17563,7 @@
         <v>423.0</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F537" s="2"/>
       <c r="G537" s="2"/>
@@ -17546,7 +17590,7 @@
         <v>424.0</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F538" s="2"/>
       <c r="G538" s="2"/>
@@ -17573,7 +17617,7 @@
         <v>425.0</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F539" s="2"/>
       <c r="G539" s="2"/>
@@ -17600,7 +17644,7 @@
         <v>426.0</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F540" s="2"/>
       <c r="G540" s="2"/>
@@ -17627,7 +17671,7 @@
         <v>427.0</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F541" s="2"/>
       <c r="G541" s="2"/>
@@ -17654,7 +17698,7 @@
         <v>428.0</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F542" s="2"/>
       <c r="G542" s="2"/>
@@ -17681,7 +17725,7 @@
         <v>429.0</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F543" s="2"/>
       <c r="G543" s="2"/>
@@ -17708,7 +17752,7 @@
         <v>430.0</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" s="2"/>
@@ -17735,7 +17779,7 @@
         <v>431.0</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F545" s="2"/>
       <c r="G545" s="2"/>
@@ -17762,7 +17806,7 @@
         <v>432.0</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F546" s="2"/>
       <c r="G546" s="2"/>
@@ -17789,7 +17833,7 @@
         <v>433.0</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F547" s="2"/>
       <c r="G547" s="2"/>
@@ -17816,7 +17860,7 @@
         <v>434.0</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F548" s="2"/>
       <c r="G548" s="2"/>
@@ -17843,7 +17887,7 @@
         <v>435.0</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F549" s="2"/>
       <c r="G549" s="2"/>
@@ -17870,7 +17914,7 @@
         <v>436.0</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F550" s="2"/>
       <c r="G550" s="2"/>
@@ -17897,7 +17941,7 @@
         <v>437.0</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F551" s="2"/>
       <c r="G551" s="2"/>
@@ -17924,7 +17968,7 @@
         <v>438.0</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F552" s="2"/>
       <c r="G552" s="2"/>
@@ -17951,7 +17995,7 @@
         <v>439.0</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F553" s="2"/>
       <c r="G553" s="2"/>
@@ -17978,7 +18022,7 @@
         <v>440.0</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F554" s="2"/>
       <c r="G554" s="2"/>
@@ -18005,7 +18049,7 @@
         <v>441.0</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F555" s="2"/>
       <c r="G555" s="2"/>
@@ -18032,7 +18076,7 @@
         <v>442.0</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F556" s="2"/>
       <c r="G556" s="2"/>
@@ -18059,7 +18103,7 @@
         <v>443.0</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F557" s="2"/>
       <c r="G557" s="2"/>
@@ -18086,7 +18130,7 @@
         <v>444.0</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F558" s="2"/>
       <c r="G558" s="2"/>
@@ -18113,7 +18157,7 @@
         <v>445.0</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F559" s="2"/>
       <c r="G559" s="2"/>
@@ -18140,7 +18184,7 @@
         <v>446.0</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F560" s="2"/>
       <c r="G560" s="2"/>
@@ -18167,7 +18211,7 @@
         <v>447.0</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F561" s="2"/>
       <c r="G561" s="2"/>
@@ -18194,7 +18238,7 @@
         <v>448.0</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F562" s="2"/>
       <c r="G562" s="2"/>
@@ -18221,7 +18265,7 @@
         <v>449.0</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F563" s="2"/>
       <c r="G563" s="2"/>
@@ -18248,7 +18292,7 @@
         <v>450.0</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F564" s="2"/>
       <c r="G564" s="2"/>
@@ -18275,7 +18319,7 @@
         <v>451.0</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F565" s="2"/>
       <c r="G565" s="2"/>
@@ -18302,7 +18346,7 @@
         <v>452.0</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F566" s="2"/>
       <c r="G566" s="2"/>
@@ -18329,7 +18373,7 @@
         <v>453.0</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F567" s="2"/>
       <c r="G567" s="2"/>
@@ -18356,7 +18400,7 @@
         <v>454.0</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F568" s="2"/>
       <c r="G568" s="2"/>
@@ -18383,7 +18427,7 @@
         <v>455.0</v>
       </c>
       <c r="E569" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F569" s="2"/>
       <c r="G569" s="2"/>
@@ -18410,7 +18454,7 @@
         <v>456.0</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F570" s="2"/>
       <c r="G570" s="2"/>
@@ -18437,7 +18481,7 @@
         <v>457.0</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F571" s="2"/>
       <c r="G571" s="2"/>
@@ -18464,7 +18508,7 @@
         <v>458.0</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F572" s="2"/>
       <c r="G572" s="2"/>
@@ -18491,7 +18535,7 @@
         <v>459.0</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F573" s="2"/>
       <c r="G573" s="2"/>
@@ -18518,7 +18562,7 @@
         <v>460.0</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F574" s="2"/>
       <c r="G574" s="2"/>
@@ -18545,7 +18589,7 @@
         <v>461.0</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F575" s="2"/>
       <c r="G575" s="2"/>
@@ -18572,7 +18616,7 @@
         <v>462.0</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F576" s="2"/>
       <c r="G576" s="2"/>
@@ -18599,7 +18643,7 @@
         <v>463.0</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F577" s="2"/>
       <c r="G577" s="2"/>
@@ -18626,7 +18670,7 @@
         <v>464.0</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F578" s="2"/>
       <c r="G578" s="2"/>
@@ -18653,7 +18697,7 @@
         <v>465.0</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F579" s="2"/>
       <c r="G579" s="2"/>
@@ -18680,7 +18724,7 @@
         <v>466.0</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F580" s="2"/>
       <c r="G580" s="2"/>
@@ -18707,7 +18751,7 @@
         <v>467.0</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F581" s="2"/>
       <c r="G581" s="2"/>
@@ -18734,7 +18778,7 @@
         <v>468.0</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F582" s="2"/>
       <c r="G582" s="2"/>
@@ -18761,7 +18805,7 @@
         <v>469.0</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F583" s="2"/>
       <c r="G583" s="2"/>
@@ -18788,7 +18832,7 @@
         <v>470.0</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F584" s="2"/>
       <c r="G584" s="2"/>
@@ -18815,7 +18859,7 @@
         <v>471.0</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F585" s="2"/>
       <c r="G585" s="2"/>
@@ -18842,7 +18886,7 @@
         <v>472.0</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F586" s="2"/>
       <c r="G586" s="2"/>
@@ -18869,7 +18913,7 @@
         <v>473.0</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F587" s="2"/>
       <c r="G587" s="2"/>
@@ -18896,7 +18940,7 @@
         <v>474.0</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F588" s="2"/>
       <c r="G588" s="2"/>
@@ -18923,7 +18967,7 @@
         <v>475.0</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F589" s="2"/>
       <c r="G589" s="2"/>
@@ -18950,7 +18994,7 @@
         <v>476.0</v>
       </c>
       <c r="E590" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F590" s="2"/>
       <c r="G590" s="2"/>
@@ -18977,7 +19021,7 @@
         <v>477.0</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F591" s="2"/>
       <c r="G591" s="2"/>
@@ -19004,7 +19048,7 @@
         <v>478.0</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F592" s="2"/>
       <c r="G592" s="2"/>
@@ -19031,7 +19075,7 @@
         <v>479.0</v>
       </c>
       <c r="E593" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F593" s="2"/>
       <c r="G593" s="2"/>
@@ -19058,7 +19102,7 @@
         <v>480.0</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F594" s="2"/>
       <c r="G594" s="2"/>
@@ -19085,7 +19129,7 @@
         <v>481.0</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F595" s="2"/>
       <c r="G595" s="2"/>
@@ -19112,7 +19156,7 @@
         <v>482.0</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F596" s="2"/>
       <c r="G596" s="2"/>
@@ -19139,7 +19183,7 @@
         <v>483.0</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F597" s="2"/>
       <c r="G597" s="2"/>
@@ -19166,7 +19210,7 @@
         <v>484.0</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F598" s="2"/>
       <c r="G598" s="2"/>
@@ -19193,7 +19237,7 @@
         <v>485.0</v>
       </c>
       <c r="E599" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F599" s="2"/>
       <c r="G599" s="2"/>
@@ -19220,7 +19264,7 @@
         <v>486.0</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F600" s="2"/>
       <c r="G600" s="2"/>
@@ -19247,7 +19291,7 @@
         <v>487.0</v>
       </c>
       <c r="E601" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F601" s="2"/>
       <c r="G601" s="2"/>
@@ -19274,7 +19318,7 @@
         <v>488.0</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F602" s="2"/>
       <c r="G602" s="2"/>
@@ -19301,7 +19345,7 @@
         <v>489.0</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F603" s="2"/>
       <c r="G603" s="2"/>
@@ -19328,7 +19372,7 @@
         <v>490.0</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F604" s="2"/>
       <c r="G604" s="2"/>
@@ -19355,7 +19399,7 @@
         <v>491.0</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F605" s="2"/>
       <c r="G605" s="2"/>
@@ -19382,7 +19426,7 @@
         <v>492.0</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F606" s="2"/>
       <c r="G606" s="2"/>
@@ -19409,7 +19453,7 @@
         <v>493.0</v>
       </c>
       <c r="E607" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" s="2"/>
@@ -19436,7 +19480,7 @@
         <v>494.0</v>
       </c>
       <c r="E608" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F608" s="2"/>
       <c r="G608" s="2"/>
@@ -19463,7 +19507,7 @@
         <v>495.0</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F609" s="2"/>
       <c r="G609" s="2"/>
@@ -19490,7 +19534,7 @@
         <v>496.0</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F610" s="2"/>
       <c r="G610" s="2"/>
@@ -19517,7 +19561,7 @@
         <v>497.0</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F611" s="2"/>
       <c r="G611" s="2"/>
@@ -19544,7 +19588,7 @@
         <v>498.0</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F612" s="2"/>
       <c r="G612" s="2"/>
@@ -19571,7 +19615,7 @@
         <v>499.0</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F613" s="2"/>
       <c r="G613" s="2"/>
@@ -19598,7 +19642,7 @@
         <v>500.0</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F614" s="2"/>
       <c r="G614" s="2"/>

--- a/Customisations/Customisations.xlsx
+++ b/Customisations/Customisations.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="162">
   <si>
     <t>Display Name</t>
   </si>
@@ -506,6 +506,9 @@
   <si>
     <t>PM</t>
   </si>
+  <si>
+    <t>Only Run Between Hours Of</t>
+  </si>
 </sst>
 </file>
 
@@ -1477,7 +1480,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3440,7 +3443,7 @@
         <v>132</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>50</v>

--- a/Customisations/Customisations.xlsx
+++ b/Customisations/Customisations.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="165">
   <si>
     <t>Display Name</t>
   </si>
@@ -509,6 +509,15 @@
   <si>
     <t>Only Run Between Hours Of</t>
   </si>
+  <si>
+    <t>Set Field When Notification Sent Selection Field</t>
+  </si>
+  <si>
+    <t>Select to change the field to set</t>
+  </si>
+  <si>
+    <t>jmcg_setfieldwhennotificationsentselection</t>
+  </si>
 </sst>
 </file>
 
@@ -1477,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1498,7 @@
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
@@ -3440,16 +3449,16 @@
         <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F30" s="2" t="b">
         <v>0</v>
@@ -3491,8 +3500,8 @@
       <c r="S30" s="1">
         <v>0</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>46</v>
+      <c r="T30" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -3506,16 +3515,16 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>62</v>
+        <v>161</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31" s="2" t="b">
         <v>0</v>
@@ -3558,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -3572,16 +3581,16 @@
         <v>12</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F32" s="2" t="b">
         <v>0</v>
@@ -3624,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -3638,16 +3647,16 @@
         <v>12</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" s="2" t="b">
         <v>0</v>
@@ -3690,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -3704,16 +3713,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F34" s="2" t="b">
         <v>0</v>
@@ -3756,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -3770,16 +3779,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F35" s="2" t="b">
         <v>0</v>
@@ -3822,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -3836,16 +3845,16 @@
         <v>12</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F36" s="2" t="b">
         <v>0</v>
@@ -3888,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -3897,12 +3906,78 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
+    <row r="37" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2">
+        <v>200</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>2000</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="O2:O1000">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="O2:O1001">
       <formula1>"Text,TextArea,Email,Url,TickerSymbol,Phone"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D2:D30 D37:D1000">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D38:D1001 D2:D31">
       <formula1>"Boolean,Date,Decimal,Double,Integer,Lookup,Money,Picklist,String,Memo,Status"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3912,16 +3987,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O689"/>
+  <dimension ref="A1:O889"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="A861" workbookViewId="0">
+      <selection activeCell="B874" sqref="B874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="8" customWidth="1"/>
@@ -22504,11 +22579,21 @@
       <c r="O688" s="2"/>
     </row>
     <row r="689" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A689" s="2"/>
-      <c r="B689" s="2"/>
-      <c r="C689" s="2"/>
-      <c r="D689" s="2"/>
-      <c r="E689" s="7"/>
+      <c r="A689" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B689" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C689" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D689" s="2">
+        <v>0</v>
+      </c>
+      <c r="E689" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="F689" s="2"/>
       <c r="G689" s="2"/>
       <c r="H689" s="2"/>
@@ -22519,6 +22604,3406 @@
       <c r="M689" s="2"/>
       <c r="N689" s="2"/>
       <c r="O689" s="2"/>
+    </row>
+    <row r="690" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B690" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C690" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D690" s="2">
+        <v>1</v>
+      </c>
+      <c r="E690" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="691" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B691" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C691" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D691" s="2">
+        <v>2</v>
+      </c>
+      <c r="E691" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="692" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B692" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C692" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D692" s="2">
+        <v>3</v>
+      </c>
+      <c r="E692" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="693" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B693" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C693" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D693" s="2">
+        <v>4</v>
+      </c>
+      <c r="E693" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="694" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B694" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C694" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D694" s="2">
+        <v>5</v>
+      </c>
+      <c r="E694" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="695" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A695" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B695" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C695" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D695" s="2">
+        <v>6</v>
+      </c>
+      <c r="E695" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="696" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B696" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C696" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D696" s="2">
+        <v>7</v>
+      </c>
+      <c r="E696" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="697" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A697" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B697" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C697" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D697" s="2">
+        <v>8</v>
+      </c>
+      <c r="E697" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="698" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A698" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B698" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C698" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D698" s="2">
+        <v>9</v>
+      </c>
+      <c r="E698" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="699" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A699" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B699" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C699" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D699" s="2">
+        <v>10</v>
+      </c>
+      <c r="E699" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="700" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A700" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B700" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C700" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D700" s="2">
+        <v>11</v>
+      </c>
+      <c r="E700" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="701" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B701" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C701" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D701" s="2">
+        <v>12</v>
+      </c>
+      <c r="E701" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="702" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B702" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C702" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D702" s="2">
+        <v>13</v>
+      </c>
+      <c r="E702" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="703" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B703" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C703" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D703" s="2">
+        <v>14</v>
+      </c>
+      <c r="E703" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="704" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B704" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C704" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D704" s="2">
+        <v>15</v>
+      </c>
+      <c r="E704" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B705" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C705" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D705" s="2">
+        <v>16</v>
+      </c>
+      <c r="E705" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B706" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C706" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D706" s="2">
+        <v>17</v>
+      </c>
+      <c r="E706" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B707" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C707" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D707" s="2">
+        <v>18</v>
+      </c>
+      <c r="E707" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B708" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C708" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D708" s="2">
+        <v>19</v>
+      </c>
+      <c r="E708" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B709" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C709" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D709" s="2">
+        <v>20</v>
+      </c>
+      <c r="E709" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A710" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B710" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C710" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D710" s="2">
+        <v>21</v>
+      </c>
+      <c r="E710" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A711" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B711" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C711" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D711" s="2">
+        <v>22</v>
+      </c>
+      <c r="E711" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B712" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C712" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D712" s="2">
+        <v>23</v>
+      </c>
+      <c r="E712" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B713" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C713" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D713" s="2">
+        <v>24</v>
+      </c>
+      <c r="E713" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A714" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C714" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D714" s="2">
+        <v>25</v>
+      </c>
+      <c r="E714" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B715" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C715" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D715" s="2">
+        <v>26</v>
+      </c>
+      <c r="E715" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B716" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C716" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D716" s="2">
+        <v>27</v>
+      </c>
+      <c r="E716" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A717" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B717" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C717" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D717" s="2">
+        <v>28</v>
+      </c>
+      <c r="E717" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B718" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C718" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D718" s="2">
+        <v>29</v>
+      </c>
+      <c r="E718" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A719" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B719" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C719" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D719" s="2">
+        <v>30</v>
+      </c>
+      <c r="E719" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A720" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B720" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C720" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D720" s="2">
+        <v>31</v>
+      </c>
+      <c r="E720" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A721" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B721" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C721" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D721" s="2">
+        <v>32</v>
+      </c>
+      <c r="E721" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A722" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B722" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C722" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D722" s="2">
+        <v>33</v>
+      </c>
+      <c r="E722" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A723" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B723" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C723" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D723" s="2">
+        <v>34</v>
+      </c>
+      <c r="E723" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B724" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C724" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D724" s="2">
+        <v>35</v>
+      </c>
+      <c r="E724" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A725" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B725" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C725" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D725" s="2">
+        <v>36</v>
+      </c>
+      <c r="E725" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A726" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B726" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C726" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D726" s="2">
+        <v>37</v>
+      </c>
+      <c r="E726" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B727" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C727" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D727" s="2">
+        <v>38</v>
+      </c>
+      <c r="E727" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B728" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C728" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D728" s="2">
+        <v>39</v>
+      </c>
+      <c r="E728" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A729" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B729" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C729" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D729" s="2">
+        <v>40</v>
+      </c>
+      <c r="E729" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A730" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B730" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C730" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D730" s="2">
+        <v>41</v>
+      </c>
+      <c r="E730" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A731" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B731" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C731" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D731" s="2">
+        <v>42</v>
+      </c>
+      <c r="E731" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B732" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C732" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D732" s="2">
+        <v>43</v>
+      </c>
+      <c r="E732" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A733" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B733" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C733" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D733" s="2">
+        <v>44</v>
+      </c>
+      <c r="E733" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A734" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B734" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C734" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D734" s="2">
+        <v>45</v>
+      </c>
+      <c r="E734" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A735" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B735" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C735" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D735" s="2">
+        <v>46</v>
+      </c>
+      <c r="E735" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B736" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C736" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D736" s="2">
+        <v>47</v>
+      </c>
+      <c r="E736" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B737" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C737" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D737" s="2">
+        <v>48</v>
+      </c>
+      <c r="E737" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B738" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C738" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D738" s="2">
+        <v>49</v>
+      </c>
+      <c r="E738" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B739" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C739" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D739" s="2">
+        <v>50</v>
+      </c>
+      <c r="E739" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A740" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B740" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C740" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D740" s="2">
+        <v>51</v>
+      </c>
+      <c r="E740" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A741" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B741" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C741" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D741" s="2">
+        <v>52</v>
+      </c>
+      <c r="E741" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A742" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B742" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C742" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D742" s="2">
+        <v>53</v>
+      </c>
+      <c r="E742" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B743" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C743" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D743" s="2">
+        <v>54</v>
+      </c>
+      <c r="E743" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A744" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B744" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C744" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D744" s="2">
+        <v>55</v>
+      </c>
+      <c r="E744" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A745" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B745" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C745" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D745" s="2">
+        <v>56</v>
+      </c>
+      <c r="E745" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A746" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B746" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C746" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D746" s="2">
+        <v>57</v>
+      </c>
+      <c r="E746" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B747" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C747" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D747" s="2">
+        <v>58</v>
+      </c>
+      <c r="E747" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B748" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C748" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D748" s="2">
+        <v>59</v>
+      </c>
+      <c r="E748" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A749" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B749" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C749" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D749" s="2">
+        <v>60</v>
+      </c>
+      <c r="E749" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A750" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B750" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C750" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D750" s="2">
+        <v>61</v>
+      </c>
+      <c r="E750" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A751" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C751" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D751" s="2">
+        <v>62</v>
+      </c>
+      <c r="E751" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A752" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B752" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C752" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D752" s="2">
+        <v>63</v>
+      </c>
+      <c r="E752" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A753" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B753" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C753" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D753" s="2">
+        <v>64</v>
+      </c>
+      <c r="E753" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A754" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B754" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C754" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D754" s="2">
+        <v>65</v>
+      </c>
+      <c r="E754" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A755" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B755" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C755" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D755" s="2">
+        <v>66</v>
+      </c>
+      <c r="E755" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A756" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B756" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C756" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D756" s="2">
+        <v>67</v>
+      </c>
+      <c r="E756" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A757" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B757" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C757" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D757" s="2">
+        <v>68</v>
+      </c>
+      <c r="E757" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A758" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B758" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C758" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D758" s="2">
+        <v>69</v>
+      </c>
+      <c r="E758" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A759" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B759" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C759" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D759" s="2">
+        <v>70</v>
+      </c>
+      <c r="E759" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A760" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B760" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C760" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D760" s="2">
+        <v>71</v>
+      </c>
+      <c r="E760" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A761" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B761" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C761" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D761" s="2">
+        <v>72</v>
+      </c>
+      <c r="E761" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A762" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B762" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C762" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D762" s="2">
+        <v>73</v>
+      </c>
+      <c r="E762" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B763" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C763" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D763" s="2">
+        <v>74</v>
+      </c>
+      <c r="E763" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A764" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B764" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C764" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D764" s="2">
+        <v>75</v>
+      </c>
+      <c r="E764" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A765" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B765" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C765" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D765" s="2">
+        <v>76</v>
+      </c>
+      <c r="E765" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A766" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B766" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C766" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D766" s="2">
+        <v>77</v>
+      </c>
+      <c r="E766" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A767" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B767" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C767" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D767" s="2">
+        <v>78</v>
+      </c>
+      <c r="E767" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A768" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B768" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C768" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D768" s="2">
+        <v>79</v>
+      </c>
+      <c r="E768" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B769" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C769" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D769" s="2">
+        <v>80</v>
+      </c>
+      <c r="E769" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B770" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C770" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D770" s="2">
+        <v>81</v>
+      </c>
+      <c r="E770" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B771" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C771" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D771" s="2">
+        <v>82</v>
+      </c>
+      <c r="E771" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B772" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C772" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D772" s="2">
+        <v>83</v>
+      </c>
+      <c r="E772" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B773" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C773" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D773" s="2">
+        <v>84</v>
+      </c>
+      <c r="E773" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A774" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B774" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C774" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D774" s="2">
+        <v>85</v>
+      </c>
+      <c r="E774" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B775" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C775" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D775" s="2">
+        <v>86</v>
+      </c>
+      <c r="E775" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A776" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B776" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C776" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D776" s="2">
+        <v>87</v>
+      </c>
+      <c r="E776" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B777" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C777" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D777" s="2">
+        <v>88</v>
+      </c>
+      <c r="E777" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A778" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B778" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C778" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D778" s="2">
+        <v>89</v>
+      </c>
+      <c r="E778" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B779" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C779" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D779" s="2">
+        <v>90</v>
+      </c>
+      <c r="E779" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A780" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B780" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C780" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D780" s="2">
+        <v>91</v>
+      </c>
+      <c r="E780" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B781" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C781" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D781" s="2">
+        <v>92</v>
+      </c>
+      <c r="E781" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A782" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B782" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C782" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D782" s="2">
+        <v>93</v>
+      </c>
+      <c r="E782" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A783" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B783" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C783" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D783" s="2">
+        <v>94</v>
+      </c>
+      <c r="E783" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A784" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B784" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C784" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D784" s="2">
+        <v>95</v>
+      </c>
+      <c r="E784" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A785" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B785" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C785" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D785" s="2">
+        <v>96</v>
+      </c>
+      <c r="E785" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A786" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B786" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C786" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D786" s="2">
+        <v>97</v>
+      </c>
+      <c r="E786" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A787" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B787" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C787" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D787" s="2">
+        <v>98</v>
+      </c>
+      <c r="E787" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A788" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B788" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C788" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D788" s="2">
+        <v>99</v>
+      </c>
+      <c r="E788" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A789" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B789" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C789" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D789" s="2">
+        <v>100</v>
+      </c>
+      <c r="E789" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A790" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B790" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C790" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D790" s="2">
+        <v>101</v>
+      </c>
+      <c r="E790" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A791" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B791" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C791" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D791" s="2">
+        <v>102</v>
+      </c>
+      <c r="E791" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A792" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B792" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C792" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D792" s="2">
+        <v>103</v>
+      </c>
+      <c r="E792" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A793" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B793" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C793" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D793" s="2">
+        <v>104</v>
+      </c>
+      <c r="E793" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A794" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B794" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C794" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D794" s="2">
+        <v>105</v>
+      </c>
+      <c r="E794" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A795" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B795" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C795" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D795" s="2">
+        <v>106</v>
+      </c>
+      <c r="E795" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A796" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B796" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C796" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D796" s="2">
+        <v>107</v>
+      </c>
+      <c r="E796" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A797" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B797" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C797" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D797" s="2">
+        <v>108</v>
+      </c>
+      <c r="E797" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A798" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B798" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C798" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D798" s="2">
+        <v>109</v>
+      </c>
+      <c r="E798" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A799" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B799" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C799" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D799" s="2">
+        <v>110</v>
+      </c>
+      <c r="E799" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A800" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B800" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C800" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D800" s="2">
+        <v>111</v>
+      </c>
+      <c r="E800" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A801" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B801" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C801" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D801" s="2">
+        <v>112</v>
+      </c>
+      <c r="E801" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A802" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B802" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C802" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D802" s="2">
+        <v>113</v>
+      </c>
+      <c r="E802" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A803" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B803" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C803" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D803" s="2">
+        <v>114</v>
+      </c>
+      <c r="E803" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A804" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B804" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C804" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D804" s="2">
+        <v>115</v>
+      </c>
+      <c r="E804" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A805" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B805" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C805" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D805" s="2">
+        <v>116</v>
+      </c>
+      <c r="E805" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A806" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B806" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C806" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D806" s="2">
+        <v>117</v>
+      </c>
+      <c r="E806" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A807" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B807" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C807" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D807" s="2">
+        <v>118</v>
+      </c>
+      <c r="E807" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A808" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B808" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C808" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D808" s="2">
+        <v>119</v>
+      </c>
+      <c r="E808" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A809" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B809" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C809" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D809" s="2">
+        <v>120</v>
+      </c>
+      <c r="E809" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A810" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B810" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C810" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D810" s="2">
+        <v>121</v>
+      </c>
+      <c r="E810" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A811" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B811" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C811" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D811" s="2">
+        <v>122</v>
+      </c>
+      <c r="E811" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A812" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B812" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C812" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D812" s="2">
+        <v>123</v>
+      </c>
+      <c r="E812" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A813" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B813" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C813" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D813" s="2">
+        <v>124</v>
+      </c>
+      <c r="E813" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A814" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B814" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C814" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D814" s="2">
+        <v>125</v>
+      </c>
+      <c r="E814" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A815" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B815" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C815" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D815" s="2">
+        <v>126</v>
+      </c>
+      <c r="E815" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A816" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B816" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C816" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D816" s="2">
+        <v>127</v>
+      </c>
+      <c r="E816" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A817" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B817" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C817" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D817" s="2">
+        <v>128</v>
+      </c>
+      <c r="E817" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B818" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C818" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D818" s="2">
+        <v>129</v>
+      </c>
+      <c r="E818" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B819" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C819" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D819" s="2">
+        <v>130</v>
+      </c>
+      <c r="E819" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A820" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B820" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C820" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D820" s="2">
+        <v>131</v>
+      </c>
+      <c r="E820" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A821" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B821" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C821" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D821" s="2">
+        <v>132</v>
+      </c>
+      <c r="E821" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A822" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B822" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C822" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D822" s="2">
+        <v>133</v>
+      </c>
+      <c r="E822" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A823" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B823" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C823" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D823" s="2">
+        <v>134</v>
+      </c>
+      <c r="E823" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A824" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B824" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C824" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D824" s="2">
+        <v>135</v>
+      </c>
+      <c r="E824" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A825" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B825" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C825" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D825" s="2">
+        <v>136</v>
+      </c>
+      <c r="E825" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A826" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B826" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C826" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D826" s="2">
+        <v>137</v>
+      </c>
+      <c r="E826" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A827" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B827" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C827" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D827" s="2">
+        <v>138</v>
+      </c>
+      <c r="E827" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A828" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B828" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C828" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D828" s="2">
+        <v>139</v>
+      </c>
+      <c r="E828" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A829" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B829" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C829" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D829" s="2">
+        <v>140</v>
+      </c>
+      <c r="E829" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A830" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B830" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C830" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D830" s="2">
+        <v>141</v>
+      </c>
+      <c r="E830" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A831" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B831" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C831" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D831" s="2">
+        <v>142</v>
+      </c>
+      <c r="E831" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A832" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B832" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C832" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D832" s="2">
+        <v>143</v>
+      </c>
+      <c r="E832" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A833" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B833" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C833" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D833" s="2">
+        <v>144</v>
+      </c>
+      <c r="E833" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A834" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B834" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C834" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D834" s="2">
+        <v>145</v>
+      </c>
+      <c r="E834" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A835" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B835" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C835" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D835" s="2">
+        <v>146</v>
+      </c>
+      <c r="E835" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A836" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B836" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C836" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D836" s="2">
+        <v>147</v>
+      </c>
+      <c r="E836" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A837" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B837" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C837" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D837" s="2">
+        <v>148</v>
+      </c>
+      <c r="E837" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A838" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B838" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C838" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D838" s="2">
+        <v>149</v>
+      </c>
+      <c r="E838" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A839" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B839" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C839" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D839" s="2">
+        <v>150</v>
+      </c>
+      <c r="E839" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A840" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B840" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C840" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D840" s="2">
+        <v>151</v>
+      </c>
+      <c r="E840" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A841" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B841" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C841" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D841" s="2">
+        <v>152</v>
+      </c>
+      <c r="E841" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A842" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B842" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C842" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D842" s="2">
+        <v>153</v>
+      </c>
+      <c r="E842" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A843" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B843" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C843" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D843" s="2">
+        <v>154</v>
+      </c>
+      <c r="E843" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A844" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B844" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C844" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D844" s="2">
+        <v>155</v>
+      </c>
+      <c r="E844" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A845" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B845" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C845" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D845" s="2">
+        <v>156</v>
+      </c>
+      <c r="E845" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A846" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B846" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C846" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D846" s="2">
+        <v>157</v>
+      </c>
+      <c r="E846" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A847" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B847" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C847" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D847" s="2">
+        <v>158</v>
+      </c>
+      <c r="E847" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A848" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B848" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C848" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D848" s="2">
+        <v>159</v>
+      </c>
+      <c r="E848" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A849" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B849" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C849" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D849" s="2">
+        <v>160</v>
+      </c>
+      <c r="E849" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A850" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B850" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C850" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D850" s="2">
+        <v>161</v>
+      </c>
+      <c r="E850" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A851" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B851" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C851" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D851" s="2">
+        <v>162</v>
+      </c>
+      <c r="E851" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A852" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B852" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C852" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D852" s="2">
+        <v>163</v>
+      </c>
+      <c r="E852" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A853" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B853" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C853" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D853" s="2">
+        <v>164</v>
+      </c>
+      <c r="E853" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A854" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B854" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C854" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D854" s="2">
+        <v>165</v>
+      </c>
+      <c r="E854" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A855" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B855" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C855" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D855" s="2">
+        <v>166</v>
+      </c>
+      <c r="E855" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A856" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B856" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C856" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D856" s="2">
+        <v>167</v>
+      </c>
+      <c r="E856" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A857" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B857" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C857" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D857" s="2">
+        <v>168</v>
+      </c>
+      <c r="E857" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A858" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B858" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C858" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D858" s="2">
+        <v>169</v>
+      </c>
+      <c r="E858" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A859" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B859" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C859" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D859" s="2">
+        <v>170</v>
+      </c>
+      <c r="E859" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A860" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B860" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C860" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D860" s="2">
+        <v>171</v>
+      </c>
+      <c r="E860" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A861" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B861" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C861" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D861" s="2">
+        <v>172</v>
+      </c>
+      <c r="E861" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A862" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B862" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C862" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D862" s="2">
+        <v>173</v>
+      </c>
+      <c r="E862" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A863" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B863" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C863" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D863" s="2">
+        <v>174</v>
+      </c>
+      <c r="E863" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A864" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B864" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C864" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D864" s="2">
+        <v>175</v>
+      </c>
+      <c r="E864" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A865" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B865" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C865" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D865" s="2">
+        <v>176</v>
+      </c>
+      <c r="E865" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A866" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B866" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C866" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D866" s="2">
+        <v>177</v>
+      </c>
+      <c r="E866" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A867" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B867" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C867" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D867" s="2">
+        <v>178</v>
+      </c>
+      <c r="E867" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A868" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B868" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C868" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D868" s="2">
+        <v>179</v>
+      </c>
+      <c r="E868" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A869" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B869" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C869" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D869" s="2">
+        <v>180</v>
+      </c>
+      <c r="E869" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A870" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B870" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C870" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D870" s="2">
+        <v>181</v>
+      </c>
+      <c r="E870" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A871" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B871" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C871" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D871" s="2">
+        <v>182</v>
+      </c>
+      <c r="E871" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A872" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B872" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C872" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D872" s="2">
+        <v>183</v>
+      </c>
+      <c r="E872" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A873" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B873" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C873" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D873" s="2">
+        <v>184</v>
+      </c>
+      <c r="E873" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A874" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B874" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C874" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D874" s="2">
+        <v>185</v>
+      </c>
+      <c r="E874" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A875" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B875" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C875" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D875" s="2">
+        <v>186</v>
+      </c>
+      <c r="E875" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A876" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B876" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C876" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D876" s="2">
+        <v>187</v>
+      </c>
+      <c r="E876" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A877" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B877" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C877" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D877" s="2">
+        <v>188</v>
+      </c>
+      <c r="E877" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A878" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B878" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C878" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D878" s="2">
+        <v>189</v>
+      </c>
+      <c r="E878" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A879" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B879" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C879" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D879" s="2">
+        <v>190</v>
+      </c>
+      <c r="E879" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A880" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B880" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C880" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D880" s="2">
+        <v>191</v>
+      </c>
+      <c r="E880" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A881" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B881" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C881" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D881" s="2">
+        <v>192</v>
+      </c>
+      <c r="E881" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A882" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B882" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C882" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D882" s="2">
+        <v>193</v>
+      </c>
+      <c r="E882" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A883" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B883" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C883" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D883" s="2">
+        <v>194</v>
+      </c>
+      <c r="E883" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A884" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B884" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C884" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D884" s="2">
+        <v>195</v>
+      </c>
+      <c r="E884" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A885" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B885" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C885" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D885" s="2">
+        <v>196</v>
+      </c>
+      <c r="E885" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A886" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B886" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C886" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D886" s="2">
+        <v>197</v>
+      </c>
+      <c r="E886" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A887" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B887" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C887" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D887" s="2">
+        <v>198</v>
+      </c>
+      <c r="E887" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A888" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B888" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C888" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D888" s="2">
+        <v>199</v>
+      </c>
+      <c r="E888" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A889" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B889" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C889" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D889" s="2">
+        <v>200</v>
+      </c>
+      <c r="E889" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Customisations/Customisations.xlsx
+++ b/Customisations/Customisations.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="169">
   <si>
     <t>Display Name</t>
   </si>
@@ -518,6 +518,18 @@
   <si>
     <t>jmcg_setfieldwhennotificationsentselection</t>
   </si>
+  <si>
+    <t>jmcg_nextmonitortime</t>
+  </si>
+  <si>
+    <t>Next Monitor  Time</t>
+  </si>
+  <si>
+    <t>jmcg_nextmonitortime2</t>
+  </si>
+  <si>
+    <t>Next Monitor  Time 2</t>
+  </si>
 </sst>
 </file>
 
@@ -1486,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3972,12 +3984,148 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
+    <row r="38" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>35</v>
+      </c>
+      <c r="K38" s="2">
+        <v>125</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>200</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+    </row>
+    <row r="39" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>35</v>
+      </c>
+      <c r="K39" s="2">
+        <v>125</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>200</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="O2:O1001">
       <formula1>"Text,TextArea,Email,Url,TickerSymbol,Phone"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D38:D1001 D2:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D2:D31 D38:D1001">
       <formula1>"Boolean,Date,Decimal,Double,Integer,Lookup,Money,Picklist,String,Memo,Status"</formula1>
     </dataValidation>
   </dataValidations>
